--- a/biology/Botanique/Ravageurs_du_riz/Ravageurs_du_riz.xlsx
+++ b/biology/Botanique/Ravageurs_du_riz/Ravageurs_du_riz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive des ravageurs du riz (Oryza sativa).
-Les ravageurs du riz sont très nombreux, en particulier les insectes. On estime ainsi à une centaine le nombre d'espèces d'insectes qui attaquent le riz, dont une vingtaine causant des pertes économiques significatives. On estime à 20 % les pertes de récoltes dues aux insectes ravageurs en Asie (principale région pour la production du riz)[1].
+Les ravageurs du riz sont très nombreux, en particulier les insectes. On estime ainsi à une centaine le nombre d'espèces d'insectes qui attaquent le riz, dont une vingtaine causant des pertes économiques significatives. On estime à 20 % les pertes de récoltes dues aux insectes ravageurs en Asie (principale région pour la production du riz).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Heterodera oryzae, anguillule à kyste du riz,
 Meloidogyne incognita var. acrita, anguillule à nœud de la patate,
@@ -548,22 +562,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coléoptères
-Dicladispa armigera,
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dicladispa armigera,
 Echinocnemus oryzae, charançon du riz,
 Echinocnemus squameus, charançon du riz,
 Hydronomidius molitor,
 Lissorhoptrus oryzophilus, charançon aquatique du riz,
 Oulema oryzae, lème du riz,
-Sitophilus oryzae, charançon du riz.
-Orthoptères
-Gryllotalpa orientalis (=africana), courtilière orientale
+Sitophilus oryzae, charançon du riz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gryllotalpa orientalis (=africana), courtilière orientale
 Hieroglyphus banian, criquet du riz,
 Hieroglyphus daganensis, criquet du riz,
 Locusta migratoria manilensis, criquet migrateur oriental,
-Oxya japonica japonica, criquet du riz à ailes courtes,
-Hémiptères
-Tetraneura nigriabdominalis, puceron noir du riz,
+Oxya japonica japonica, criquet du riz à ailes courtes,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tetraneura nigriabdominalis, puceron noir du riz,
 Geoica lucifuga, puceron de la canne à sucre,
 Scotinophara coarctata,
 Scotinophara lurida,
@@ -579,9 +666,43 @@
 Laodelphax striatella, cicadelle brune mineure
 Sogatella furcifera, cicadelle à dos blanc
 Cofana spectra, cicadelle blanche du riz,
-Brevennia rehi, cochenille du riz,
-Lepidoptères
-Mythimna separata, noctuelle asiatique,
+Brevennia rehi, cochenille du riz,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lepidoptères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mythimna separata, noctuelle asiatique,
 Spodoptera mauritia, noctuelle du riz,
 Spodoptera litura, noctuelle rayée,
 Nymphula depunctalis,
@@ -598,45 +719,115 @@
 Susumia exigua, tordeuse du riz
 Marasmia patnalis,
 Marasmia ruralis,
-Cnaphalocrocis medinalis, pyrale des herbes,
-Diptères
-Orseolia oryzae, cécidomyie de la tige du riz,
+Cnaphalocrocis medinalis, pyrale des herbes,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Orseolia oryzae, cécidomyie de la tige du riz,
 Orseolia oryzivora, cécidomyie du riz,
 Hydrellia philippina,
 Hydrellia sasakii, mouche noir des tiges du riz,
 Hydrellia griseola, petite mineuse du riz
 Atherigona oryzae,
-Atherigona exigua,
-Thysanoptères
-Stenchaetothrips biformis, thrips du riz,</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Atherigona exigua,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ravageurs_du_riz</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Thysanoptères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stenchaetothrips biformis, thrips du riz,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_riz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Acariens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Stenotarsonemus spinki, acarien de la panicule du riz,</t>
         </is>
